--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.2712634615478</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H2">
-        <v>12.2712634615478</v>
+        <v>50.654071</v>
       </c>
       <c r="I2">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J2">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1294.8233662721</v>
+        <v>1899.753782272944</v>
       </c>
       <c r="R2">
-        <v>1294.8233662721</v>
+        <v>17097.7840404565</v>
       </c>
       <c r="S2">
-        <v>0.01968580772535978</v>
+        <v>0.02052706285490925</v>
       </c>
       <c r="T2">
-        <v>0.01968580772535978</v>
+        <v>0.02052706285490925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.2712634615478</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H3">
-        <v>12.2712634615478</v>
+        <v>50.654071</v>
       </c>
       <c r="I3">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J3">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1302.907471970209</v>
+        <v>1795.086836363696</v>
       </c>
       <c r="R3">
-        <v>1302.907471970209</v>
+        <v>16155.78152727326</v>
       </c>
       <c r="S3">
-        <v>0.01980871418082686</v>
+        <v>0.01939612420509118</v>
       </c>
       <c r="T3">
-        <v>0.01980871418082686</v>
+        <v>0.01939612420509119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.2712634615478</v>
+        <v>16.88469033333334</v>
       </c>
       <c r="H4">
-        <v>12.2712634615478</v>
+        <v>50.654071</v>
       </c>
       <c r="I4">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="J4">
-        <v>0.06260338744669074</v>
+        <v>0.06267206522474383</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1519.973144477006</v>
+        <v>2105.379987454065</v>
       </c>
       <c r="R4">
-        <v>1519.973144477006</v>
+        <v>18948.41988708659</v>
       </c>
       <c r="S4">
-        <v>0.02310886554050409</v>
+        <v>0.02274887816474339</v>
       </c>
       <c r="T4">
-        <v>0.02310886554050409</v>
+        <v>0.0227488781647434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.1259337772057</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H5">
-        <v>73.1259337772057</v>
+        <v>222.944687</v>
       </c>
       <c r="I5">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="J5">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>7716.008056700081</v>
+        <v>8361.420987582767</v>
       </c>
       <c r="R5">
-        <v>7716.008056700081</v>
+        <v>75252.7888882449</v>
       </c>
       <c r="S5">
-        <v>0.1173100941550391</v>
+        <v>0.09034613630989441</v>
       </c>
       <c r="T5">
-        <v>0.1173100941550391</v>
+        <v>0.09034613630989441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.1259337772057</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H6">
-        <v>73.1259337772057</v>
+        <v>222.944687</v>
       </c>
       <c r="I6">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="J6">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>7764.182214135478</v>
+        <v>7900.74844864738</v>
       </c>
       <c r="R6">
-        <v>7764.182214135478</v>
+        <v>71106.73603782643</v>
       </c>
       <c r="S6">
-        <v>0.11804250849456</v>
+        <v>0.08536851539370206</v>
       </c>
       <c r="T6">
-        <v>0.11804250849456</v>
+        <v>0.08536851539370208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.1259337772057</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H7">
-        <v>73.1259337772057</v>
+        <v>222.944687</v>
       </c>
       <c r="I7">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="J7">
-        <v>0.3730611097219514</v>
+        <v>0.2758397042791308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>9057.70264442983</v>
+        <v>9266.447356600627</v>
       </c>
       <c r="R7">
-        <v>9057.70264442983</v>
+        <v>83398.02620940564</v>
       </c>
       <c r="S7">
-        <v>0.1377085070723523</v>
+        <v>0.1001250525755343</v>
       </c>
       <c r="T7">
-        <v>0.1377085070723523</v>
+        <v>0.1001250525755344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>110.618768702343</v>
+        <v>178.2137526666667</v>
       </c>
       <c r="H8">
-        <v>110.618768702343</v>
+        <v>534.641258</v>
       </c>
       <c r="I8">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="J8">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>11672.12870238355</v>
+        <v>20051.43381357571</v>
       </c>
       <c r="R8">
-        <v>11672.12870238355</v>
+        <v>180462.9043221814</v>
       </c>
       <c r="S8">
-        <v>0.1774568542443879</v>
+        <v>0.2166580985720527</v>
       </c>
       <c r="T8">
-        <v>0.1774568542443879</v>
+        <v>0.2166580985720527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>110.618768702343</v>
+        <v>178.2137526666667</v>
       </c>
       <c r="H9">
-        <v>110.618768702343</v>
+        <v>534.641258</v>
       </c>
       <c r="I9">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="J9">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>11745.00252024155</v>
+        <v>18946.69994861274</v>
       </c>
       <c r="R9">
-        <v>11745.00252024155</v>
+        <v>170520.2995375147</v>
       </c>
       <c r="S9">
-        <v>0.1785647891210157</v>
+        <v>0.204721319345373</v>
       </c>
       <c r="T9">
-        <v>0.1785647891210157</v>
+        <v>0.2047213193453731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>110.618768702343</v>
+        <v>178.2137526666667</v>
       </c>
       <c r="H10">
-        <v>110.618768702343</v>
+        <v>534.641258</v>
       </c>
       <c r="I10">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="J10">
-        <v>0.5643355028313578</v>
+        <v>0.6614882304961253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>13701.73154781793</v>
+        <v>22221.76782317191</v>
       </c>
       <c r="R10">
-        <v>13701.73154781793</v>
+        <v>199995.9104085472</v>
       </c>
       <c r="S10">
-        <v>0.2083138594659542</v>
+        <v>0.2401088125786995</v>
       </c>
       <c r="T10">
-        <v>0.2083138594659542</v>
+        <v>0.2401088125786996</v>
       </c>
     </row>
   </sheetData>
